--- a/AI/Together Dataset.xlsx
+++ b/AI/Together Dataset.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanduni Ridmika\Desktop\Final Year Project\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanduni Ridmika\Desktop\FYP\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DC70ED-DBA6-48B0-B3D0-1A7687A651B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE0B495-D8F7-4852-B96D-82BC66F10722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -225,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="19">
   <si>
     <t>Depressed</t>
   </si>
@@ -270,6 +271,18 @@
   </si>
   <si>
     <t>Thoughts that you would be better off dead, or hurting yourself in some way?</t>
+  </si>
+  <si>
+    <t>Several days</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>Nearly everyday</t>
+  </si>
+  <si>
+    <t>More than half the days</t>
   </si>
 </sst>
 </file>
@@ -8823,7 +8836,7859 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B729EA-FA56-4B4F-8BCD-B287E4A1B47D}">
+  <dimension ref="A1:L206"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="XEY179" sqref="XEY1:XEY1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" t="s">
+        <v>15</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" t="s">
+        <v>15</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" t="s">
+        <v>15</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" t="s">
+        <v>15</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" t="s">
+        <v>16</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" t="s">
+        <v>15</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" t="s">
+        <v>18</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" t="s">
+        <v>15</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" t="s">
+        <v>16</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" t="s">
+        <v>17</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>16</v>
+      </c>
+      <c r="K105" t="s">
+        <v>17</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" t="s">
+        <v>15</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" t="s">
+        <v>15</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" t="s">
+        <v>16</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" t="s">
+        <v>16</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>15</v>
+      </c>
+      <c r="K110" t="s">
+        <v>16</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" t="s">
+        <v>15</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>15</v>
+      </c>
+      <c r="K112" t="s">
+        <v>15</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" t="s">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>15</v>
+      </c>
+      <c r="K113" t="s">
+        <v>16</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>16</v>
+      </c>
+      <c r="K114" t="s">
+        <v>16</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>15</v>
+      </c>
+      <c r="K115" t="s">
+        <v>16</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" t="s">
+        <v>18</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>16</v>
+      </c>
+      <c r="K117" t="s">
+        <v>16</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" t="s">
+        <v>18</v>
+      </c>
+      <c r="J118" t="s">
+        <v>16</v>
+      </c>
+      <c r="K118" t="s">
+        <v>15</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" t="s">
+        <v>16</v>
+      </c>
+      <c r="K119" t="s">
+        <v>16</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>16</v>
+      </c>
+      <c r="K120" t="s">
+        <v>16</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>16</v>
+      </c>
+      <c r="H121" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" t="s">
+        <v>15</v>
+      </c>
+      <c r="K121" t="s">
+        <v>15</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>16</v>
+      </c>
+      <c r="K122" t="s">
+        <v>16</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" t="s">
+        <v>16</v>
+      </c>
+      <c r="K123" t="s">
+        <v>15</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>16</v>
+      </c>
+      <c r="K124" t="s">
+        <v>15</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>16</v>
+      </c>
+      <c r="K125" t="s">
+        <v>16</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>16</v>
+      </c>
+      <c r="K126" t="s">
+        <v>16</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>16</v>
+      </c>
+      <c r="K127" t="s">
+        <v>16</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" t="s">
+        <v>15</v>
+      </c>
+      <c r="K128" t="s">
+        <v>15</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>16</v>
+      </c>
+      <c r="K129" t="s">
+        <v>16</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>16</v>
+      </c>
+      <c r="K130" t="s">
+        <v>16</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>16</v>
+      </c>
+      <c r="K131" t="s">
+        <v>16</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>16</v>
+      </c>
+      <c r="K132" t="s">
+        <v>16</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" t="s">
+        <v>15</v>
+      </c>
+      <c r="K133" t="s">
+        <v>16</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" t="s">
+        <v>18</v>
+      </c>
+      <c r="J134" t="s">
+        <v>18</v>
+      </c>
+      <c r="K134" t="s">
+        <v>18</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" t="s">
+        <v>16</v>
+      </c>
+      <c r="K135" t="s">
+        <v>16</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>16</v>
+      </c>
+      <c r="K136" t="s">
+        <v>16</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" t="s">
+        <v>16</v>
+      </c>
+      <c r="K137" t="s">
+        <v>16</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>16</v>
+      </c>
+      <c r="K138" t="s">
+        <v>16</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" t="s">
+        <v>15</v>
+      </c>
+      <c r="K139" t="s">
+        <v>18</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>16</v>
+      </c>
+      <c r="K140" t="s">
+        <v>16</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>16</v>
+      </c>
+      <c r="K141" t="s">
+        <v>15</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>16</v>
+      </c>
+      <c r="K142" t="s">
+        <v>16</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>16</v>
+      </c>
+      <c r="K143" t="s">
+        <v>16</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>15</v>
+      </c>
+      <c r="K144" t="s">
+        <v>17</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" t="s">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" t="s">
+        <v>18</v>
+      </c>
+      <c r="J145" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" t="s">
+        <v>16</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" t="s">
+        <v>18</v>
+      </c>
+      <c r="K146" t="s">
+        <v>16</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>18</v>
+      </c>
+      <c r="K147" t="s">
+        <v>15</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>16</v>
+      </c>
+      <c r="K148" t="s">
+        <v>15</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>18</v>
+      </c>
+      <c r="H149" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" t="s">
+        <v>15</v>
+      </c>
+      <c r="J149" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" t="s">
+        <v>17</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" t="s">
+        <v>15</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" t="s">
+        <v>17</v>
+      </c>
+      <c r="F151" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>18</v>
+      </c>
+      <c r="K151" t="s">
+        <v>15</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" t="s">
+        <v>15</v>
+      </c>
+      <c r="J152" t="s">
+        <v>15</v>
+      </c>
+      <c r="K152" t="s">
+        <v>15</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153" t="s">
+        <v>16</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>15</v>
+      </c>
+      <c r="K154" t="s">
+        <v>16</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>18</v>
+      </c>
+      <c r="K155" t="s">
+        <v>18</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" t="s">
+        <v>15</v>
+      </c>
+      <c r="K156" t="s">
+        <v>16</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157" t="s">
+        <v>18</v>
+      </c>
+      <c r="K157" t="s">
+        <v>15</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" t="s">
+        <v>18</v>
+      </c>
+      <c r="J158" t="s">
+        <v>15</v>
+      </c>
+      <c r="K158" t="s">
+        <v>17</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159" t="s">
+        <v>18</v>
+      </c>
+      <c r="F159" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>15</v>
+      </c>
+      <c r="K159" t="s">
+        <v>16</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>15</v>
+      </c>
+      <c r="K160" t="s">
+        <v>15</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" t="s">
+        <v>15</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" t="s">
+        <v>17</v>
+      </c>
+      <c r="F162" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" t="s">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>16</v>
+      </c>
+      <c r="K162" t="s">
+        <v>18</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163" t="s">
+        <v>17</v>
+      </c>
+      <c r="F163" t="s">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>16</v>
+      </c>
+      <c r="K163" t="s">
+        <v>16</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" t="s">
+        <v>17</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" t="s">
+        <v>16</v>
+      </c>
+      <c r="K164" t="s">
+        <v>16</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165" t="s">
+        <v>15</v>
+      </c>
+      <c r="I165" t="s">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>16</v>
+      </c>
+      <c r="K165" t="s">
+        <v>15</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" t="s">
+        <v>15</v>
+      </c>
+      <c r="I166" t="s">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s">
+        <v>16</v>
+      </c>
+      <c r="K166" t="s">
+        <v>16</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" t="s">
+        <v>17</v>
+      </c>
+      <c r="I167" t="s">
+        <v>18</v>
+      </c>
+      <c r="J167" t="s">
+        <v>18</v>
+      </c>
+      <c r="K167" t="s">
+        <v>17</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168" t="s">
+        <v>17</v>
+      </c>
+      <c r="F168" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" t="s">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s">
+        <v>15</v>
+      </c>
+      <c r="K168" t="s">
+        <v>15</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>16</v>
+      </c>
+      <c r="B169" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" t="s">
+        <v>16</v>
+      </c>
+      <c r="F169" t="s">
+        <v>16</v>
+      </c>
+      <c r="G169" t="s">
+        <v>16</v>
+      </c>
+      <c r="H169" t="s">
+        <v>16</v>
+      </c>
+      <c r="I169" t="s">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s">
+        <v>16</v>
+      </c>
+      <c r="K169" t="s">
+        <v>16</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>16</v>
+      </c>
+      <c r="H170" t="s">
+        <v>16</v>
+      </c>
+      <c r="I170" t="s">
+        <v>16</v>
+      </c>
+      <c r="J170" t="s">
+        <v>16</v>
+      </c>
+      <c r="K170" t="s">
+        <v>16</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>18</v>
+      </c>
+      <c r="E171" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>18</v>
+      </c>
+      <c r="H171" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" t="s">
+        <v>18</v>
+      </c>
+      <c r="J171" t="s">
+        <v>18</v>
+      </c>
+      <c r="K171" t="s">
+        <v>18</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" t="s">
+        <v>18</v>
+      </c>
+      <c r="H172" t="s">
+        <v>15</v>
+      </c>
+      <c r="I172" t="s">
+        <v>16</v>
+      </c>
+      <c r="J172" t="s">
+        <v>16</v>
+      </c>
+      <c r="K172" t="s">
+        <v>16</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173" t="s">
+        <v>15</v>
+      </c>
+      <c r="I173" t="s">
+        <v>16</v>
+      </c>
+      <c r="J173" t="s">
+        <v>16</v>
+      </c>
+      <c r="K173" t="s">
+        <v>15</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" t="s">
+        <v>16</v>
+      </c>
+      <c r="G174" t="s">
+        <v>17</v>
+      </c>
+      <c r="H174" t="s">
+        <v>15</v>
+      </c>
+      <c r="I174" t="s">
+        <v>16</v>
+      </c>
+      <c r="J174" t="s">
+        <v>15</v>
+      </c>
+      <c r="K174" t="s">
+        <v>15</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175" t="s">
+        <v>18</v>
+      </c>
+      <c r="F175" t="s">
+        <v>16</v>
+      </c>
+      <c r="G175" t="s">
+        <v>16</v>
+      </c>
+      <c r="H175" t="s">
+        <v>15</v>
+      </c>
+      <c r="I175" t="s">
+        <v>16</v>
+      </c>
+      <c r="J175" t="s">
+        <v>16</v>
+      </c>
+      <c r="K175" t="s">
+        <v>16</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" t="s">
+        <v>17</v>
+      </c>
+      <c r="I176" t="s">
+        <v>17</v>
+      </c>
+      <c r="J176" t="s">
+        <v>17</v>
+      </c>
+      <c r="K176" t="s">
+        <v>17</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" t="s">
+        <v>18</v>
+      </c>
+      <c r="I177" t="s">
+        <v>15</v>
+      </c>
+      <c r="J177" t="s">
+        <v>18</v>
+      </c>
+      <c r="K177" t="s">
+        <v>17</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" t="s">
+        <v>16</v>
+      </c>
+      <c r="G178" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178" t="s">
+        <v>16</v>
+      </c>
+      <c r="I178" t="s">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>15</v>
+      </c>
+      <c r="K178" t="s">
+        <v>15</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>18</v>
+      </c>
+      <c r="E179" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" t="s">
+        <v>15</v>
+      </c>
+      <c r="I179" t="s">
+        <v>18</v>
+      </c>
+      <c r="J179" t="s">
+        <v>18</v>
+      </c>
+      <c r="K179" t="s">
+        <v>16</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" t="s">
+        <v>17</v>
+      </c>
+      <c r="F180" t="s">
+        <v>17</v>
+      </c>
+      <c r="G180" t="s">
+        <v>17</v>
+      </c>
+      <c r="H180" t="s">
+        <v>17</v>
+      </c>
+      <c r="I180" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180" t="s">
+        <v>17</v>
+      </c>
+      <c r="K180" t="s">
+        <v>17</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" t="s">
+        <v>17</v>
+      </c>
+      <c r="F181" t="s">
+        <v>16</v>
+      </c>
+      <c r="G181" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181" t="s">
+        <v>18</v>
+      </c>
+      <c r="I181" t="s">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>16</v>
+      </c>
+      <c r="K181" t="s">
+        <v>15</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" t="s">
+        <v>18</v>
+      </c>
+      <c r="F182" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182" t="s">
+        <v>17</v>
+      </c>
+      <c r="I182" t="s">
+        <v>18</v>
+      </c>
+      <c r="J182" t="s">
+        <v>18</v>
+      </c>
+      <c r="K182" t="s">
+        <v>18</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183" t="s">
+        <v>17</v>
+      </c>
+      <c r="F183" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" t="s">
+        <v>17</v>
+      </c>
+      <c r="H183" t="s">
+        <v>18</v>
+      </c>
+      <c r="I183" t="s">
+        <v>16</v>
+      </c>
+      <c r="J183" t="s">
+        <v>18</v>
+      </c>
+      <c r="K183" t="s">
+        <v>15</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" t="s">
+        <v>15</v>
+      </c>
+      <c r="I184" t="s">
+        <v>16</v>
+      </c>
+      <c r="J184" t="s">
+        <v>17</v>
+      </c>
+      <c r="K184" t="s">
+        <v>16</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" t="s">
+        <v>15</v>
+      </c>
+      <c r="F185" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" t="s">
+        <v>16</v>
+      </c>
+      <c r="H185" t="s">
+        <v>16</v>
+      </c>
+      <c r="I185" t="s">
+        <v>16</v>
+      </c>
+      <c r="J185" t="s">
+        <v>18</v>
+      </c>
+      <c r="K185" t="s">
+        <v>16</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>16</v>
+      </c>
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" t="s">
+        <v>15</v>
+      </c>
+      <c r="F186" t="s">
+        <v>16</v>
+      </c>
+      <c r="G186" t="s">
+        <v>16</v>
+      </c>
+      <c r="H186" t="s">
+        <v>16</v>
+      </c>
+      <c r="I186" t="s">
+        <v>16</v>
+      </c>
+      <c r="J186" t="s">
+        <v>16</v>
+      </c>
+      <c r="K186" t="s">
+        <v>16</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" t="s">
+        <v>18</v>
+      </c>
+      <c r="E187" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" t="s">
+        <v>17</v>
+      </c>
+      <c r="G187" t="s">
+        <v>17</v>
+      </c>
+      <c r="H187" t="s">
+        <v>18</v>
+      </c>
+      <c r="I187" t="s">
+        <v>18</v>
+      </c>
+      <c r="J187" t="s">
+        <v>15</v>
+      </c>
+      <c r="K187" t="s">
+        <v>17</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188" t="s">
+        <v>18</v>
+      </c>
+      <c r="F188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" t="s">
+        <v>15</v>
+      </c>
+      <c r="H188" t="s">
+        <v>15</v>
+      </c>
+      <c r="I188" t="s">
+        <v>16</v>
+      </c>
+      <c r="J188" t="s">
+        <v>15</v>
+      </c>
+      <c r="K188" t="s">
+        <v>16</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" t="s">
+        <v>17</v>
+      </c>
+      <c r="F189" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189" t="s">
+        <v>15</v>
+      </c>
+      <c r="I189" t="s">
+        <v>16</v>
+      </c>
+      <c r="J189" t="s">
+        <v>16</v>
+      </c>
+      <c r="K189" t="s">
+        <v>16</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" t="s">
+        <v>15</v>
+      </c>
+      <c r="H190" t="s">
+        <v>15</v>
+      </c>
+      <c r="I190" t="s">
+        <v>16</v>
+      </c>
+      <c r="J190" t="s">
+        <v>16</v>
+      </c>
+      <c r="K190" t="s">
+        <v>16</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" t="s">
+        <v>18</v>
+      </c>
+      <c r="E191" t="s">
+        <v>18</v>
+      </c>
+      <c r="F191" t="s">
+        <v>15</v>
+      </c>
+      <c r="G191" t="s">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s">
+        <v>16</v>
+      </c>
+      <c r="I191" t="s">
+        <v>16</v>
+      </c>
+      <c r="J191" t="s">
+        <v>16</v>
+      </c>
+      <c r="K191" t="s">
+        <v>16</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" t="s">
+        <v>17</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" t="s">
+        <v>17</v>
+      </c>
+      <c r="F192" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" t="s">
+        <v>17</v>
+      </c>
+      <c r="H192" t="s">
+        <v>15</v>
+      </c>
+      <c r="I192" t="s">
+        <v>16</v>
+      </c>
+      <c r="J192" t="s">
+        <v>15</v>
+      </c>
+      <c r="K192" t="s">
+        <v>17</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" t="s">
+        <v>17</v>
+      </c>
+      <c r="C193" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193" t="s">
+        <v>18</v>
+      </c>
+      <c r="F193" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193" t="s">
+        <v>18</v>
+      </c>
+      <c r="I193" t="s">
+        <v>16</v>
+      </c>
+      <c r="J193" t="s">
+        <v>17</v>
+      </c>
+      <c r="K193" t="s">
+        <v>18</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" t="s">
+        <v>17</v>
+      </c>
+      <c r="F194" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194" t="s">
+        <v>18</v>
+      </c>
+      <c r="H194" t="s">
+        <v>15</v>
+      </c>
+      <c r="I194" t="s">
+        <v>16</v>
+      </c>
+      <c r="J194" t="s">
+        <v>15</v>
+      </c>
+      <c r="K194" t="s">
+        <v>17</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195" t="s">
+        <v>17</v>
+      </c>
+      <c r="F195" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195" t="s">
+        <v>15</v>
+      </c>
+      <c r="I195" t="s">
+        <v>16</v>
+      </c>
+      <c r="J195" t="s">
+        <v>15</v>
+      </c>
+      <c r="K195" t="s">
+        <v>16</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" t="s">
+        <v>15</v>
+      </c>
+      <c r="F196" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" t="s">
+        <v>15</v>
+      </c>
+      <c r="H196" t="s">
+        <v>18</v>
+      </c>
+      <c r="I196" t="s">
+        <v>16</v>
+      </c>
+      <c r="J196" t="s">
+        <v>15</v>
+      </c>
+      <c r="K196" t="s">
+        <v>16</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" t="s">
+        <v>18</v>
+      </c>
+      <c r="E197" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" t="s">
+        <v>17</v>
+      </c>
+      <c r="G197" t="s">
+        <v>18</v>
+      </c>
+      <c r="H197" t="s">
+        <v>15</v>
+      </c>
+      <c r="I197" t="s">
+        <v>15</v>
+      </c>
+      <c r="J197" t="s">
+        <v>16</v>
+      </c>
+      <c r="K197" t="s">
+        <v>18</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" t="s">
+        <v>15</v>
+      </c>
+      <c r="F198" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198" t="s">
+        <v>15</v>
+      </c>
+      <c r="H198" t="s">
+        <v>15</v>
+      </c>
+      <c r="I198" t="s">
+        <v>16</v>
+      </c>
+      <c r="J198" t="s">
+        <v>15</v>
+      </c>
+      <c r="K198" t="s">
+        <v>15</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" t="s">
+        <v>15</v>
+      </c>
+      <c r="F199" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" t="s">
+        <v>15</v>
+      </c>
+      <c r="H199" t="s">
+        <v>15</v>
+      </c>
+      <c r="I199" t="s">
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>15</v>
+      </c>
+      <c r="K199" t="s">
+        <v>16</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" t="s">
+        <v>17</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" t="s">
+        <v>17</v>
+      </c>
+      <c r="H200" t="s">
+        <v>17</v>
+      </c>
+      <c r="I200" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200" t="s">
+        <v>17</v>
+      </c>
+      <c r="K200" t="s">
+        <v>18</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" t="s">
+        <v>17</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" t="s">
+        <v>18</v>
+      </c>
+      <c r="H201" t="s">
+        <v>16</v>
+      </c>
+      <c r="I201" t="s">
+        <v>16</v>
+      </c>
+      <c r="J201" t="s">
+        <v>18</v>
+      </c>
+      <c r="K201" t="s">
+        <v>18</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202" t="s">
+        <v>15</v>
+      </c>
+      <c r="F202" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202" t="s">
+        <v>18</v>
+      </c>
+      <c r="H202" t="s">
+        <v>18</v>
+      </c>
+      <c r="I202" t="s">
+        <v>16</v>
+      </c>
+      <c r="J202" t="s">
+        <v>16</v>
+      </c>
+      <c r="K202" t="s">
+        <v>16</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" t="s">
+        <v>15</v>
+      </c>
+      <c r="H203" t="s">
+        <v>16</v>
+      </c>
+      <c r="I203" t="s">
+        <v>16</v>
+      </c>
+      <c r="J203" t="s">
+        <v>15</v>
+      </c>
+      <c r="K203" t="s">
+        <v>16</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>16</v>
+      </c>
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" t="s">
+        <v>16</v>
+      </c>
+      <c r="F204" t="s">
+        <v>16</v>
+      </c>
+      <c r="G204" t="s">
+        <v>15</v>
+      </c>
+      <c r="H204" t="s">
+        <v>16</v>
+      </c>
+      <c r="I204" t="s">
+        <v>16</v>
+      </c>
+      <c r="J204" t="s">
+        <v>18</v>
+      </c>
+      <c r="K204" t="s">
+        <v>16</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205" t="s">
+        <v>17</v>
+      </c>
+      <c r="F205" t="s">
+        <v>15</v>
+      </c>
+      <c r="G205" t="s">
+        <v>18</v>
+      </c>
+      <c r="H205" t="s">
+        <v>18</v>
+      </c>
+      <c r="I205" t="s">
+        <v>18</v>
+      </c>
+      <c r="J205" t="s">
+        <v>17</v>
+      </c>
+      <c r="K205" t="s">
+        <v>16</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" t="s">
+        <v>15</v>
+      </c>
+      <c r="F206" t="s">
+        <v>15</v>
+      </c>
+      <c r="G206" t="s">
+        <v>15</v>
+      </c>
+      <c r="H206" t="s">
+        <v>17</v>
+      </c>
+      <c r="I206" t="s">
+        <v>17</v>
+      </c>
+      <c r="J206" t="s">
+        <v>15</v>
+      </c>
+      <c r="K206" t="s">
+        <v>15</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100016CF17EF7C9364EA4D657BCC2AEB537" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3b51f7ca94a670b9bd60515b7c6e0b72">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c2b30fa3-1b38-4d56-ae04-5ce02799aaa4" xmlns:ns4="e7606691-1c08-48f0-9093-5b6d19ecaf82" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b105820bfb41c54faaa698ac0eb70d3" ns3:_="" ns4:_="">
     <xsd:import namespace="c2b30fa3-1b38-4d56-ae04-5ce02799aaa4"/>
@@ -9040,15 +16905,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9056,6 +16912,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A40E3FE4-6373-40B4-9DE9-436ECE83C2FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF331743-265F-430D-87B0-26418FC9ECAF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9070,14 +16934,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A40E3FE4-6373-40B4-9DE9-436ECE83C2FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
